--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.1975436192544</v>
+        <v>7.572976999999999</v>
       </c>
       <c r="H2">
-        <v>6.1975436192544</v>
+        <v>22.718931</v>
       </c>
       <c r="I2">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913077</v>
       </c>
       <c r="J2">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913078</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>78.22242230721641</v>
+        <v>146.0459156666667</v>
       </c>
       <c r="N2">
-        <v>78.22242230721641</v>
+        <v>438.137747</v>
       </c>
       <c r="O2">
-        <v>0.3377306912940324</v>
+        <v>0.4862506770104965</v>
       </c>
       <c r="P2">
-        <v>0.3377306912940324</v>
+        <v>0.4862506770104965</v>
       </c>
       <c r="Q2">
-        <v>484.7868742527121</v>
+        <v>1106.002360287606</v>
       </c>
       <c r="R2">
-        <v>484.7868742527121</v>
+        <v>9954.021242588457</v>
       </c>
       <c r="S2">
-        <v>0.1475805943446754</v>
+        <v>0.2186995371260436</v>
       </c>
       <c r="T2">
-        <v>0.1475805943446754</v>
+        <v>0.2186995371260436</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.1975436192544</v>
+        <v>7.572976999999999</v>
       </c>
       <c r="H3">
-        <v>6.1975436192544</v>
+        <v>22.718931</v>
       </c>
       <c r="I3">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913077</v>
       </c>
       <c r="J3">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913078</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>122.182784369124</v>
+        <v>122.7232436666666</v>
       </c>
       <c r="N3">
-        <v>122.182784369124</v>
+        <v>368.169731</v>
       </c>
       <c r="O3">
-        <v>0.5275325796885614</v>
+        <v>0.408599309644787</v>
       </c>
       <c r="P3">
-        <v>0.5275325796885614</v>
+        <v>0.408599309644787</v>
       </c>
       <c r="Q3">
-        <v>757.2331356496006</v>
+        <v>929.380301653062</v>
       </c>
       <c r="R3">
-        <v>757.2331356496006</v>
+        <v>8364.422714877559</v>
       </c>
       <c r="S3">
-        <v>0.2305196822601991</v>
+        <v>0.1837745099682542</v>
       </c>
       <c r="T3">
-        <v>0.2305196822601991</v>
+        <v>0.1837745099682543</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.1975436192544</v>
+        <v>7.572976999999999</v>
       </c>
       <c r="H4">
-        <v>6.1975436192544</v>
+        <v>22.718931</v>
       </c>
       <c r="I4">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913077</v>
       </c>
       <c r="J4">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913078</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.206619916923</v>
+        <v>31.58192</v>
       </c>
       <c r="N4">
-        <v>31.206619916923</v>
+        <v>94.74576</v>
       </c>
       <c r="O4">
-        <v>0.1347367290174062</v>
+        <v>0.1051500133447165</v>
       </c>
       <c r="P4">
-        <v>0.1347367290174062</v>
+        <v>0.1051500133447165</v>
       </c>
       <c r="Q4">
-        <v>193.4043881446234</v>
+        <v>239.16915377584</v>
       </c>
       <c r="R4">
-        <v>193.4043881446234</v>
+        <v>2152.52238398256</v>
       </c>
       <c r="S4">
-        <v>0.05887687160517659</v>
+        <v>0.0472930122970099</v>
       </c>
       <c r="T4">
-        <v>0.05887687160517659</v>
+        <v>0.04729301229700991</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.74708419421314</v>
+        <v>2.784025666666667</v>
       </c>
       <c r="H5">
-        <v>2.74708419421314</v>
+        <v>8.352077</v>
       </c>
       <c r="I5">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="J5">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.22242230721641</v>
+        <v>146.0459156666667</v>
       </c>
       <c r="N5">
-        <v>78.22242230721641</v>
+        <v>438.137747</v>
       </c>
       <c r="O5">
-        <v>0.3377306912940324</v>
+        <v>0.4862506770104965</v>
       </c>
       <c r="P5">
-        <v>0.3377306912940324</v>
+        <v>0.4862506770104965</v>
       </c>
       <c r="Q5">
-        <v>214.8835799532195</v>
+        <v>406.5955777278355</v>
       </c>
       <c r="R5">
-        <v>214.8835799532195</v>
+        <v>3659.360199550519</v>
       </c>
       <c r="S5">
-        <v>0.06541564577896636</v>
+        <v>0.08039970603991335</v>
       </c>
       <c r="T5">
-        <v>0.06541564577896636</v>
+        <v>0.08039970603991335</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.74708419421314</v>
+        <v>2.784025666666667</v>
       </c>
       <c r="H6">
-        <v>2.74708419421314</v>
+        <v>8.352077</v>
       </c>
       <c r="I6">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="J6">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>122.182784369124</v>
+        <v>122.7232436666666</v>
       </c>
       <c r="N6">
-        <v>122.182784369124</v>
+        <v>368.169731</v>
       </c>
       <c r="O6">
-        <v>0.5275325796885614</v>
+        <v>0.408599309644787</v>
       </c>
       <c r="P6">
-        <v>0.5275325796885614</v>
+        <v>0.408599309644787</v>
       </c>
       <c r="Q6">
-        <v>335.6463957453728</v>
+        <v>341.6646602645874</v>
       </c>
       <c r="R6">
-        <v>335.6463957453728</v>
+        <v>3074.981942381286</v>
       </c>
       <c r="S6">
-        <v>0.1021787040957063</v>
+        <v>0.06756034682671148</v>
       </c>
       <c r="T6">
-        <v>0.1021787040957063</v>
+        <v>0.0675603468267115</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.74708419421314</v>
+        <v>2.784025666666667</v>
       </c>
       <c r="H7">
-        <v>2.74708419421314</v>
+        <v>8.352077</v>
       </c>
       <c r="I7">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="J7">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.206619916923</v>
+        <v>31.58192</v>
       </c>
       <c r="N7">
-        <v>31.206619916923</v>
+        <v>94.74576</v>
       </c>
       <c r="O7">
-        <v>0.1347367290174062</v>
+        <v>0.1051500133447165</v>
       </c>
       <c r="P7">
-        <v>0.1347367290174062</v>
+        <v>0.1051500133447165</v>
       </c>
       <c r="Q7">
-        <v>85.72721232859614</v>
+        <v>87.92487588261334</v>
       </c>
       <c r="R7">
-        <v>85.72721232859614</v>
+        <v>791.3238829435199</v>
       </c>
       <c r="S7">
-        <v>0.02609739169706001</v>
+        <v>0.01738615607691108</v>
       </c>
       <c r="T7">
-        <v>0.02609739169706001</v>
+        <v>0.01738615607691108</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.23813584966867</v>
+        <v>6.480551000000001</v>
       </c>
       <c r="H8">
-        <v>5.23813584966867</v>
+        <v>19.441653</v>
       </c>
       <c r="I8">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="J8">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>78.22242230721641</v>
+        <v>146.0459156666667</v>
       </c>
       <c r="N8">
-        <v>78.22242230721641</v>
+        <v>438.137747</v>
       </c>
       <c r="O8">
-        <v>0.3377306912940324</v>
+        <v>0.4862506770104965</v>
       </c>
       <c r="P8">
-        <v>0.3377306912940324</v>
+        <v>0.4862506770104965</v>
       </c>
       <c r="Q8">
-        <v>409.7396745353525</v>
+        <v>946.4580048195326</v>
       </c>
       <c r="R8">
-        <v>409.7396745353525</v>
+        <v>8518.122043375792</v>
       </c>
       <c r="S8">
-        <v>0.1247344511703906</v>
+        <v>0.1871514338445395</v>
       </c>
       <c r="T8">
-        <v>0.1247344511703906</v>
+        <v>0.1871514338445395</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.23813584966867</v>
+        <v>6.480551000000001</v>
       </c>
       <c r="H9">
-        <v>5.23813584966867</v>
+        <v>19.441653</v>
       </c>
       <c r="I9">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="J9">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.182784369124</v>
+        <v>122.7232436666666</v>
       </c>
       <c r="N9">
-        <v>122.182784369124</v>
+        <v>368.169731</v>
       </c>
       <c r="O9">
-        <v>0.5275325796885614</v>
+        <v>0.408599309644787</v>
       </c>
       <c r="P9">
-        <v>0.5275325796885614</v>
+        <v>0.408599309644787</v>
       </c>
       <c r="Q9">
-        <v>640.0100230162452</v>
+        <v>795.3142394672603</v>
       </c>
       <c r="R9">
-        <v>640.0100230162452</v>
+        <v>7157.828155205343</v>
       </c>
       <c r="S9">
-        <v>0.1948341933326559</v>
+        <v>0.1572644528498212</v>
       </c>
       <c r="T9">
-        <v>0.1948341933326559</v>
+        <v>0.1572644528498212</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.23813584966867</v>
+        <v>6.480551000000001</v>
       </c>
       <c r="H10">
-        <v>5.23813584966867</v>
+        <v>19.441653</v>
       </c>
       <c r="I10">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="J10">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.206619916923</v>
+        <v>31.58192</v>
       </c>
       <c r="N10">
-        <v>31.206619916923</v>
+        <v>94.74576</v>
       </c>
       <c r="O10">
-        <v>0.1347367290174062</v>
+        <v>0.1051500133447165</v>
       </c>
       <c r="P10">
-        <v>0.1347367290174062</v>
+        <v>0.1051500133447165</v>
       </c>
       <c r="Q10">
-        <v>163.4645145338187</v>
+        <v>204.66824323792</v>
       </c>
       <c r="R10">
-        <v>163.4645145338187</v>
+        <v>1842.01418914128</v>
       </c>
       <c r="S10">
-        <v>0.04976246571516955</v>
+        <v>0.04047084497079548</v>
       </c>
       <c r="T10">
-        <v>0.04976246571516955</v>
+        <v>0.04047084497079549</v>
       </c>
     </row>
   </sheetData>
